--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_9.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_9.xlsx
@@ -478,63 +478,63 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_24</t>
+          <t>model_2_9_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7573055026688431</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6463719803356682</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6833379488374911</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4265580455931244</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2685913145542145</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7430467009544373</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9318958520889282</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8319162726402283</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_23</t>
+          <t>model_2_9_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.761904959984591</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6523562103144567</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.6307179107890155</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4405953841123837</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2635010778903961</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7304725646972656</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9027653932571411</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8115516901016235</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="4">
@@ -544,307 +544,307 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7745961451100323</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6643283420024826</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4356769332874655</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4847999057346323</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2494556456804276</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7053166031837463</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7947907447814941</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7474223375320435</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_22</t>
+          <t>model_2_9_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7760274769647314</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6705266711570065</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4688229456380379</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4836006212351923</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2478715628385544</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6922926306724548</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8131403923034668</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7491621971130371</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_18</t>
+          <t>model_2_9_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7793531241838145</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6646731233817119</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3289490220594429</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5042302311622886</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2441910654306412</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7045921087265015</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7357062101364136</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7192339897155762</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_17</t>
+          <t>model_2_9_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7807442648769549</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6650751716606502</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2963273526842098</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5103965790301445</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.242651492357254</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7037473320960999</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7176468372344971</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7102881669998169</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_19</t>
+          <t>model_2_9_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7816708772754047</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6724456950975464</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3351850324656243</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5090700574679379</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2416260242462158</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6882603168487549</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7391583919525146</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7122126221656799</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_20</t>
+          <t>model_2_9_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7818754037549327</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6793631261302551</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3664400908433976</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5087616665641563</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2413996458053589</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6737253665924072</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7564612627029419</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I9" t="n">
-        <v>0.712660014629364</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_16</t>
+          <t>model_2_9_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7835801750174274</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6724269846179183</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2771055716570821</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E10" t="n">
-        <v>0.519485456227748</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2395129948854446</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6882995963096619</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7070056200027466</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6971026062965393</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_15</t>
+          <t>model_2_9_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7875190219275205</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6775172038825297</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2341965534131716</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5310940450269814</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2351538091897964</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6776039600372314</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6832512617111206</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6802615523338318</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_14</t>
+          <t>model_2_9_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7893446580870154</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6753707564368456</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1839263883204689</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5384754119782817</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F12" t="n">
-        <v>0.233133390545845</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6821141242980957</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6554216146469116</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6695530414581299</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_13</t>
+          <t>model_2_9_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7949415525487205</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6835626752678967</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1181348131023314</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5565714121102407</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2269392758607864</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6649012565612793</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6189994215965271</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6433004140853882</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="14">
@@ -854,400 +854,400 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8000968198857694</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6913946382431786</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07331563129198515</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5706252517200145</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F14" t="n">
-        <v>0.221233919262886</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>0.648444652557373</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5941874980926514</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6229119300842285</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_11</t>
+          <t>model_2_9_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8099005689778277</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7048569889824738</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03724121941725411</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6008012984258704</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2103840559720993</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6201574206352234</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5329832434654236</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I15" t="n">
-        <v>0.5791342854499817</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_10</t>
+          <t>model_2_9_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8216430231549499</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7265201584460527</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1406385695677547</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6359798587489538</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.197388619184494</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5746386051177979</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4757424592971802</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5280992388725281</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_1</t>
+          <t>model_2_9_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8310017367527716</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8444408792085916</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5780089190302135</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8049406003061121</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1870312839746475</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3268623650074005</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2336142510175705</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2829807996749878</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_9</t>
+          <t>model_2_9_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8381686383019679</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7564843916319959</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D18" t="n">
-        <v>0.289586517794413</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6857033528027137</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1790996342897415</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5116773843765259</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3932849168777466</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4559633135795593</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_8</t>
+          <t>model_2_9_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8523985836350357</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7868881281357178</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4166621160512438</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7318361220140235</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1633512675762177</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4477927982807159</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3229358494281769</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3890365660190582</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_0</t>
+          <t>model_2_9_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8545518215143011</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8981129308159479</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9123959865038398</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9061431103367054</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1609682738780975</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.21408611536026</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04849757999181747</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I20" t="n">
-        <v>0.136162132024765</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_7</t>
+          <t>model_2_9_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8576697334206571</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7929340520112851</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4748078091738955</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7469135393089092</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F21" t="n">
-        <v>0.157517671585083</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4350889921188354</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2907463908195496</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3671630918979645</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_2</t>
+          <t>model_2_9_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8577332061049967</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9171826525766107</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4994194998168953</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8466050054795928</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1574474275112152</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1740166395902634</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H22" t="n">
-        <v>0.277121365070343</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2225365340709686</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_6</t>
+          <t>model_2_9_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8667275294741166</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8129617227325885</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5409525471469214</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7741485021969905</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1474933475255966</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3930066823959351</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2541286647319794</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3276522159576416</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_5</t>
+          <t>model_2_9_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8693796817565971</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C24" t="n">
-        <v>0.813999506298127</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D24" t="n">
-        <v>0.583552206031198</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7825940894601502</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1445582062005997</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3908260762691498</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2305455058813095</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3153998851776123</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_4</t>
+          <t>model_2_9_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.878024029674509</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8273555498132112</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6566226164951704</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8059569238768031</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1349914520978928</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3627622127532959</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1900937110185623</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2815063893795013</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_9_3</t>
+          <t>model_2_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8812763703887766</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8364280781037268</v>
+        <v>0.03320776602868791</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6790159042771825</v>
+        <v>-0.117905973768957</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8169348464432797</v>
+        <v>-0.007641264704611572</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1313920766115189</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3436989486217499</v>
+        <v>1.576687693595886</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1776967942714691</v>
+        <v>0.7930145263671875</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2655802965164185</v>
+        <v>1.207900285720825</v>
       </c>
     </row>
   </sheetData>
